--- a/batcaverna/planilhas/Tarefas_PLC_ONS_10_02_2026.xlsx
+++ b/batcaverna/planilhas/Tarefas_PLC_ONS_10_02_2026.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="31">
   <si>
     <t>Tarefa</t>
   </si>
@@ -73,58 +73,40 @@
     <t>Pessoal/Espiritual</t>
   </si>
   <si>
-    <t>VB Organon - Case Manager (.dat, .dut, .spt, .PWF)</t>
+    <t>Projeto ONS - VB Organon Mensal - Case Manager (.dat, .dut, .spt, .PWF)</t>
+  </si>
+  <si>
+    <t>Projeto ONS - VA Configuração de cargas Mensal</t>
+  </si>
+  <si>
+    <t>Projeto ONS - Perdas Duplas Lts</t>
+  </si>
+  <si>
+    <t>Projeto ONS - VC AnaRede e OneNote Mensal</t>
+  </si>
+  <si>
+    <t>Projeto ONS - VC Intercambios + Kanban</t>
+  </si>
+  <si>
+    <t>Estudo ou coding intenso (Eng Elétrica /IA e Automações/ FrontEnd)</t>
+  </si>
+  <si>
+    <t>Profissional/Estudo</t>
+  </si>
+  <si>
+    <t>Treino de calistenia + Alongamento + ABS (20 min)</t>
+  </si>
+  <si>
+    <t>Estudo leve ou curso online</t>
+  </si>
+  <si>
+    <t>Correções do SISBAR e parecer na áreia de barras faltantes</t>
   </si>
   <si>
     <t>Leitura de livros de Física 3</t>
   </si>
   <si>
-    <t>Profissional/Estudo</t>
-  </si>
-  <si>
     <t>“Eat the Frog” – tarefa principal (código ou estudo)</t>
-  </si>
-  <si>
-    <t>Projeto técnico / Debug / NextJS + HTML Apps</t>
-  </si>
-  <si>
-    <t>Projeto ONS - Perdas Duplas Lts</t>
-  </si>
-  <si>
-    <t>Projeto ONS - VC AnaRede e OneNote Mensal</t>
-  </si>
-  <si>
-    <t>Projeto ONS - VC Intercambios + Kanban</t>
-  </si>
-  <si>
-    <t>Pausa com leitura ou vídeo inspirador</t>
-  </si>
-  <si>
-    <t>Pausa/Descanso</t>
-  </si>
-  <si>
-    <t>Estudo ou coding intenso (Eng Elétrica /IA e Automações/ FrontEnd)</t>
-  </si>
-  <si>
-    <t>Treino de calistenia + Alongamento + ABS (20 min)</t>
-  </si>
-  <si>
-    <t>Reuniões / Debugs / Organização</t>
-  </si>
-  <si>
-    <t>Projeto criativo ou tutorial IA</t>
-  </si>
-  <si>
-    <t>Treino leve ou hobby relaxante</t>
-  </si>
-  <si>
-    <t>Estudo leve ou curso online</t>
-  </si>
-  <si>
-    <t>Revisão + Diário + Ritual Noturno</t>
-  </si>
-  <si>
-    <t>Correções do SISBAR e parecer na áreia de barras faltantes</t>
   </si>
 </sst>
 </file>
@@ -1167,15 +1149,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E23"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="62.375" customWidth="1"/>
+    <col min="1" max="1" width="67.875" customWidth="1"/>
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
@@ -1309,7 +1291,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" ht="16" customHeight="1" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1332,7 +1314,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1341,13 +1323,13 @@
         <v>15</v>
       </c>
       <c r="E9" s="8">
-        <v>46069</v>
+        <v>46072</v>
       </c>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>7</v>
@@ -1356,19 +1338,19 @@
         <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E10" s="8">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -1377,13 +1359,13 @@
         <v>9</v>
       </c>
       <c r="E11" s="8">
-        <v>46071</v>
+        <v>46073</v>
       </c>
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -1392,55 +1374,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E12" s="8">
-        <v>46072</v>
+        <v>46074</v>
       </c>
       <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="8">
-        <v>46073</v>
-      </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="8">
-        <v>46074</v>
-      </c>
-      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>8</v>
@@ -1449,70 +1395,70 @@
         <v>15</v>
       </c>
       <c r="E15" s="8">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E16" s="8">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="8">
+        <v>46081</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="8">
-        <v>46077</v>
-      </c>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="E18" s="8">
-        <v>46078</v>
-      </c>
-      <c r="F18" s="9"/>
+        <v>46083</v>
+      </c>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>8</v>
@@ -1521,81 +1467,27 @@
         <v>15</v>
       </c>
       <c r="E19" s="8">
-        <v>46079</v>
+        <v>46069</v>
       </c>
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E20" s="8">
-        <v>46080</v>
+        <v>46070</v>
       </c>
       <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="8">
-        <v>46081</v>
-      </c>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="8">
-        <v>46082</v>
-      </c>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="8">
-        <v>46083</v>
-      </c>
-      <c r="F23" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/batcaverna/planilhas/Tarefas_PLC_ONS_10_02_2026.xlsx
+++ b/batcaverna/planilhas/Tarefas_PLC_ONS_10_02_2026.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
   <si>
     <t>Tarefa</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Obs</t>
   </si>
   <si>
-    <t>Reunião Inicial All Handss</t>
+    <t>Reunião Inicial All Hands</t>
   </si>
   <si>
     <t>ONS</t>
@@ -43,31 +43,31 @@
     <t>PV</t>
   </si>
   <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desenvolvimento em Python, Javascript e Rust </t>
+  </si>
+  <si>
+    <t>CODING</t>
+  </si>
+  <si>
     <t>Sim</t>
   </si>
   <si>
-    <t xml:space="preserve">Desenvolvimento em Python, JS e Rust </t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
     <t>Alinhamento Espiritual + Diário Caligrafia + Frase do Dia</t>
   </si>
   <si>
-    <t>Treino físico / Alongamento - Matinal</t>
+    <t>Treino físico / Alongamento Quadril e Ombros - Matinal (100 push ups + 100 ABS)</t>
   </si>
   <si>
     <t>Saúde/Físico</t>
   </si>
   <si>
-    <t>Não</t>
-  </si>
-  <si>
     <t>Kanban + SCRUM - Segunda/Sexta - Planejamento</t>
   </si>
   <si>
-    <t>Planejamento financeiro</t>
+    <t>Planejamento financeiro Mensal</t>
   </si>
   <si>
     <t>Pessoal/Espiritual</t>
@@ -88,16 +88,19 @@
     <t>Projeto ONS - VC Intercambios + Kanban</t>
   </si>
   <si>
+    <t>Treino de calistenia + Alongamento + ABS (20 min)</t>
+  </si>
+  <si>
+    <t>Profissional/Estudo</t>
+  </si>
+  <si>
     <t>Estudo ou coding intenso (Eng Elétrica /IA e Automações/ FrontEnd)</t>
   </si>
   <si>
-    <t>Profissional/Estudo</t>
-  </si>
-  <si>
-    <t>Treino de calistenia + Alongamento + ABS (20 min)</t>
-  </si>
-  <si>
-    <t>Estudo leve ou curso online</t>
+    <t xml:space="preserve">Estudos de programação: Python + Julia </t>
+  </si>
+  <si>
+    <t>Estudos</t>
   </si>
   <si>
     <t>Correções do SISBAR e parecer na áreia de barras faltantes</t>
@@ -816,17 +819,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1152,342 +1164,346 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="67.875" customWidth="1"/>
+    <col min="1" max="1" width="67.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="9">
         <v>46066</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9">
+        <v>46063</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="9">
+        <v>46064</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E5" s="9">
+        <v>46065</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="9">
         <v>46063</v>
       </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="9">
+        <v>46067</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" ht="16" customHeight="1" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="9">
+        <v>46064</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="9">
+        <v>46064</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="9">
+        <v>46064</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="9">
+        <v>46064</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="9">
+        <v>46064</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9">
+        <v>46076</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="9">
+        <v>46063</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="9">
+        <v>46063</v>
+      </c>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="E16" s="9">
+        <v>46063</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="9">
+        <v>46063</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="8">
-        <v>46064</v>
-      </c>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="8">
-        <v>46065</v>
-      </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="8">
-        <v>46066</v>
-      </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="8">
-        <v>46067</v>
-      </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" ht="16" customHeight="1" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="8">
-        <v>46068</v>
-      </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="8">
-        <v>46072</v>
-      </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="8">
-        <v>46072</v>
-      </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="8">
-        <v>46073</v>
-      </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="8">
-        <v>46074</v>
-      </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="8">
-        <v>46076</v>
-      </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="8">
-        <v>46077</v>
-      </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="8">
-        <v>46081</v>
-      </c>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="8">
-        <v>46083</v>
-      </c>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="8">
-        <v>46069</v>
-      </c>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="8">
-        <v>46070</v>
-      </c>
-      <c r="F20" s="9"/>
+      <c r="E18" s="9">
+        <v>46063</v>
+      </c>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/batcaverna/planilhas/Tarefas_PLC_ONS_10_02_2026.xlsx
+++ b/batcaverna/planilhas/Tarefas_PLC_ONS_10_02_2026.xlsx
@@ -120,7 +120,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +132,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFffffff"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -268,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -294,6 +300,9 @@
     <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -303,14 +312,17 @@
     <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,12 +632,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="67.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="67.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="16" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -862,7 +874,7 @@
       <c r="E13" s="7">
         <v>46064</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="5" t="s">
@@ -880,7 +892,7 @@
       <c r="E14" s="7">
         <v>46076</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="5" t="s">
@@ -898,7 +910,7 @@
       <c r="E15" s="7">
         <v>46063</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="5" t="s">
@@ -919,16 +931,16 @@
       <c r="F16" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="C17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="7">
@@ -970,14 +982,14 @@
       <c r="E19" s="7">
         <v>46063</v>
       </c>
-      <c r="F19" s="11"/>
+      <c r="F19" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="12"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
@@ -985,7 +997,7 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="12"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="8"/>
     </row>
   </sheetData>
